--- a/Pharma_Strategy_Template_V1.xlsx
+++ b/Pharma_Strategy_Template_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipstorer/Documents/Pharma Brand Manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62D8AA5-0D2A-574E-B655-8681C0E72E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F25217E-AB0D-4143-8B42-578873F219B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="500" windowWidth="20140" windowHeight="18600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="760" windowWidth="26400" windowHeight="18060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audience" sheetId="7" r:id="rId1"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2605,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD0CB7-6F7E-FF4B-94DA-DC6D8FB7DB7C}">
   <dimension ref="A1:B320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
